--- a/Tabla_S1.xlsx
+++ b/Tabla_S1.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -383,6 +383,11 @@
           <t>Ingreso Total</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Cantidad</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -402,6 +407,9 @@
       <c r="E2">
         <v>1845881.765029914</v>
       </c>
+      <c r="F2">
+        <v>4910</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -420,6 +428,9 @@
       </c>
       <c r="E3">
         <v>1667633.632979968</v>
+      </c>
+      <c r="F3">
+        <v>4875</v>
       </c>
     </row>
   </sheetData>
